--- a/spliced/falling/2023-03-25_17-55-24/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,200 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0175623763352632</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2777909636497497</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0302378293126821</v>
+        <v>-0.1429424732923507</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5580254197120667</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6604980230331421</v>
+        <v>0.0444404482841491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4694499373435974</v>
+        <v>-0.2125810980796814</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.051451802253723</v>
+        <v>0.4230241775512695</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.956462264060974</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.834733724594116</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0054977871477603</v>
+        <v>0.5377141237258911</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.47539234161377</v>
+        <v>-0.1299615800380706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.41551399230957</v>
+        <v>-0.1346957832574844</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4040873646736145</v>
+        <v>0.5236642360687256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6867652535438538</v>
+        <v>0.1327104717493057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.0175623763352632</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6850853562355042</v>
+        <v>-0.0714712366461753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1965458989143371</v>
+        <v>-0.2777909636497497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2154827117919922</v>
+        <v>0.0302378293126821</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3124575614929199</v>
+        <v>0.5580254197120667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2249511331319809</v>
+        <v>-0.6604980230331421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.1125519201159477</v>
+        <v>0.4694499373435974</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1751656085252761</v>
+        <v>-1.051451802253723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4828889667987823</v>
+        <v>-0.956462264060974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1719585657119751</v>
+        <v>-1.834733724594116</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7235698699951172</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-1.47539234161377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0491746515035629</v>
+        <v>2.41551399230957</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7188356518745422</v>
+        <v>0.4040873646736145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3561344444751739</v>
+        <v>0.6867652535438538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0861319974064827</v>
+        <v>-0.168751522898674</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2157881408929824</v>
+        <v>0.6850853562355042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3926336467266083</v>
+        <v>0.1965458989143371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0914770737290382</v>
+        <v>-0.2154827117919922</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1360702365636825</v>
+        <v>0.3124575614929199</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0354301854968071</v>
+        <v>0.2249511331319809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1240056455135345</v>
+        <v>-0.1125519201159477</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0096211275085806</v>
+        <v>-0.1751656085252761</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4243986308574676</v>
+        <v>0.4828889667987823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.009468411095440299</v>
+        <v>-0.1719585657119751</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0371100641787052</v>
+        <v>-0.7235698699951172</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0630718395113945</v>
+        <v>-0.6099489331245422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0762054398655891</v>
+        <v>-0.0491746515035629</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1154535338282585</v>
+        <v>-0.7188356518745422</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0804814994335174</v>
+        <v>0.3561344444751739</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0861319974064827</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0511599630117416</v>
+        <v>0.2157881408929824</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0673478916287422</v>
+        <v>0.3926336467266083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0189368221908807</v>
+        <v>-0.0914770737290382</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0048869219608604</v>
+        <v>0.1360702365636825</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0157297793775796</v>
+        <v>-0.0354301854968071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0064140851609408</v>
+        <v>0.1240056455135345</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0296269636601209</v>
+        <v>0.0096211275085806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0337503030896186</v>
+        <v>-0.4243986308574676</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.009468411095440299</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0371100641787052</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0630718395113945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.0762054398655891</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1154535338282585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0804814994335174</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-24/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-24/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,221 +452,331 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0018325957935303</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1020144969224929</v>
+        <v>0.0256563406437635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0574213340878486</v>
+        <v>0.06856962293386459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1429424732923507</v>
+        <v>0.0575740486383438</v>
       </c>
       <c r="B3" t="n">
-        <v>0.204487144947052</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0444404482841491</v>
+        <v>0.1545489132404327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2125810980796814</v>
+        <v>-0.0140499006956815</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4230241775512695</v>
+        <v>0.0291688162833452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0167987942695617</v>
+        <v>0.0418442711234092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0858265683054924</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5377141237258911</v>
+        <v>-0.0210748501121997</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1299615800380706</v>
+        <v>0.0074830991216003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1346957832574844</v>
+        <v>0.0100792767480015</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5236642360687256</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1327104717493057</v>
+        <v>-0.0143553335219621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0175623763352632</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2777909636497497</v>
+        <v>-0.016951510682702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0302378293126821</v>
+        <v>0.0010690141934901</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5580254197120667</v>
+        <v>0.0012217304902151</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6604980230331421</v>
+        <v>-0.0684169083833694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4694499373435974</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.051451802253723</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.956462264060974</v>
+        <v>-0.07605272531509399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.834733724594116</v>
+        <v>-0.0381790772080421</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0054977871477603</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.47539234161377</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.41551399230957</v>
+        <v>-0.0554360225796699</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4040873646736145</v>
+        <v>0.0329867228865623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6867652535438538</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.168751522898674</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6850853562355042</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1965458989143371</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2154827117919922</v>
+        <v>-0.1429424732923507</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3124575614929199</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2249511331319809</v>
+        <v>0.0444404482841491</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1125519201159477</v>
+        <v>-0.2125810980796814</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1751656085252761</v>
+        <v>0.4230241775512695</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4828889667987823</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1719585657119751</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7235698699951172</v>
+        <v>0.5377141237258911</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-0.1299615800380706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0491746515035629</v>
+        <v>-0.1346957832574844</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7188356518745422</v>
+        <v>0.5236642360687256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3561344444751739</v>
+        <v>0.1327104717493057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0861319974064827</v>
+        <v>-0.0175623763352632</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2157881408929824</v>
+        <v>-0.0714712366461753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3926336467266083</v>
+        <v>-0.2777909636497497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0914770737290382</v>
+        <v>0.0302378293126821</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1360702365636825</v>
+        <v>0.5580254197120667</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0354301854968071</v>
+        <v>-0.6604980230331421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1240056455135345</v>
+        <v>0.4694499373435974</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0096211275085806</v>
+        <v>-1.051451802253723</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4243986308574676</v>
+        <v>-0.956462264060974</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.009468411095440299</v>
+        <v>-1.834733724594116</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0371100641787052</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0630718395113945</v>
+        <v>-1.47539234161377</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.41551399230957</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4040873646736145</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6867652535438538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.168751522898674</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6850853562355042</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1965458989143371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.2154827117919922</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3124575614929199</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2249511331319809</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1125519201159477</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1751656085252761</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4828889667987823</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1719585657119751</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.7235698699951172</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.6099489331245422</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0491746515035629</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.7188356518745422</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3561344444751739</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0861319974064827</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2157881408929824</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3926336467266083</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0914770737290382</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1360702365636825</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0354301854968071</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1240056455135345</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0096211275085806</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4243986308574676</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.009468411095440299</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0371100641787052</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0630718395113945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>0.0762054398655891</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B31" t="n">
         <v>0.1154535338282585</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C31" t="n">
         <v>0.0804814994335174</v>
       </c>
     </row>
